--- a/0.사업예산관리/예산신청/비목별 사업비 사용내역_201230예상.xlsx
+++ b/0.사업예산관리/예산신청/비목별 사업비 사용내역_201230예상.xlsx
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ver.201230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>12월, 1월 인건비 지출 예상</t>
+  </si>
+  <si>
+    <t>ver.210104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,9 +432,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +505,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,7 +820,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,28 +834,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -931,22 +931,22 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>13978240</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
         <f>D4-SUM(F4:F5)</f>
         <v>54097</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1007,50 +1007,50 @@
         <v>123636</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>2727273</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>726364</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
         <v>1072727</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1169,274 +1169,274 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="18">
-        <f>SUM(D3:D14)</f>
+      <c r="D15" s="17">
+        <f t="shared" ref="D15:I15" si="0">SUM(D3:D14)</f>
         <v>54000000</v>
       </c>
-      <c r="E15" s="9">
-        <f>SUM(E3:E14)</f>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
         <v>34177570</v>
       </c>
-      <c r="F15" s="18">
-        <f>SUM(F3:F14)</f>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
         <v>51005919</v>
       </c>
-      <c r="G15" s="9">
-        <f>SUM(G3:G14)</f>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
         <v>29014951</v>
       </c>
-      <c r="H15" s="9">
-        <f>SUM(H3:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <f>SUM(I3:I14)</f>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
         <v>2994081</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22">
+      <c r="E16" s="20"/>
+      <c r="F16" s="21">
         <v>2002510</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="23" t="s">
-        <v>34</v>
+      <c r="B17" s="29"/>
+      <c r="C17" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="24">
+      <c r="E17" s="14"/>
+      <c r="F17" s="23">
         <v>197490</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="23" t="s">
-        <v>34</v>
+      <c r="B18" s="29"/>
+      <c r="C18" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="24">
+      <c r="E18" s="14"/>
+      <c r="F18" s="23">
         <v>2269320</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="23" t="s">
-        <v>34</v>
+      <c r="B19" s="29"/>
+      <c r="C19" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="24">
+      <c r="E19" s="14"/>
+      <c r="F19" s="23">
         <v>223680</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="24">
-        <v>2050840</v>
+      <c r="E20" s="14"/>
+      <c r="F20" s="23">
+        <v>1987060</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="23" t="s">
-        <v>34</v>
+      <c r="B21" s="29"/>
+      <c r="C21" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="24">
-        <v>48400</v>
+      <c r="E21" s="14"/>
+      <c r="F21" s="23">
+        <v>112180</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="24">
+      <c r="E22" s="14"/>
+      <c r="F22" s="23">
         <v>1999250</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="24">
+      <c r="E23" s="14"/>
+      <c r="F23" s="23">
         <v>200750</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="24">
+      <c r="E24" s="14"/>
+      <c r="F24" s="23">
         <v>2265640</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="25" t="s">
-        <v>36</v>
+      <c r="B25" s="29"/>
+      <c r="C25" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="24">
+      <c r="E25" s="14"/>
+      <c r="F25" s="23">
         <v>227360</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="25" t="s">
-        <v>36</v>
+      <c r="B26" s="29"/>
+      <c r="C26" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="24">
+        <v>34</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="23">
         <v>2248180</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="24">
+      <c r="E27" s="14"/>
+      <c r="F27" s="23">
         <v>244820</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="31"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27">
         <f>SUM(F16:F27)</f>
         <v>13978240</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
